--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="75">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 19.1</t>
@@ -318,7 +321,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -326,7 +329,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -334,7 +337,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -342,7 +345,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -350,7 +353,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -358,7 +361,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
@@ -366,7 +369,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -374,7 +377,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -382,7 +385,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -390,7 +393,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
@@ -398,7 +401,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -406,7 +409,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -414,7 +417,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
@@ -422,7 +425,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -430,7 +433,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
@@ -438,7 +441,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -446,7 +449,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -454,7 +457,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -462,7 +465,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
@@ -470,7 +473,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -478,7 +481,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -486,7 +489,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
@@ -494,7 +497,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26">
@@ -502,7 +505,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27">
@@ -510,7 +513,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -518,7 +521,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
@@ -526,7 +529,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -534,7 +537,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
@@ -542,7 +545,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32">
@@ -550,7 +553,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33">
@@ -558,7 +561,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34">
@@ -566,7 +569,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35">
@@ -574,7 +577,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36">
@@ -582,7 +585,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37">
@@ -590,7 +593,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38">
@@ -598,7 +601,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39">
@@ -606,7 +609,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40">
@@ -614,7 +617,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41">
@@ -622,7 +625,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42">
@@ -630,7 +633,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43">
@@ -638,7 +641,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44">
@@ -646,7 +649,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45">
@@ -654,7 +657,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46">
@@ -662,7 +665,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47">
@@ -670,7 +673,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48">
@@ -678,7 +681,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49">
@@ -686,7 +689,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50">
@@ -694,7 +697,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51">
@@ -702,7 +705,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52">
@@ -710,7 +713,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53">
@@ -718,7 +721,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54">
@@ -726,7 +729,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55">
@@ -734,7 +737,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56">
@@ -742,7 +745,15 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="76">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,220 +26,223 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.12 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.94 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.16</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.61 fix 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.12 fix 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.94 fix 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.16</t>
   </si>
 </sst>
 </file>
@@ -753,7 +756,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="77">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
@@ -324,7 +327,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -332,7 +335,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -340,7 +343,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -348,7 +351,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -356,7 +359,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -364,7 +367,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -372,7 +375,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -380,7 +383,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -388,7 +391,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
@@ -396,7 +399,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -404,7 +407,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -412,7 +415,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
@@ -420,7 +423,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
@@ -428,7 +431,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -436,7 +439,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -444,7 +447,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
@@ -452,7 +455,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -460,7 +463,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -468,7 +471,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -476,7 +479,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -484,7 +487,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
@@ -492,7 +495,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -508,7 +511,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
@@ -516,7 +519,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -524,7 +527,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
@@ -532,7 +535,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30">
@@ -548,7 +551,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
@@ -556,7 +559,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33">
@@ -564,7 +567,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34">
@@ -572,7 +575,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35">
@@ -588,7 +591,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
@@ -596,7 +599,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38">
@@ -604,7 +607,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39">
@@ -612,7 +615,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40">
@@ -620,7 +623,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41">
@@ -628,7 +631,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42">
@@ -636,7 +639,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43">
@@ -644,7 +647,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44">
@@ -652,7 +655,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45">
@@ -668,7 +671,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47">
@@ -676,7 +679,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48">
@@ -692,7 +695,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50">
@@ -700,7 +703,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51">
@@ -708,7 +711,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52">
@@ -724,7 +727,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54">
@@ -757,6 +760,14 @@
       </c>
       <c r="B57" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="78">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,199 +26,202 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.75 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.12 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.94 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.34</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.12 fix 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.94 fix 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.34</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.41</t>
@@ -495,7 +498,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
@@ -599,7 +602,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38">
@@ -687,7 +690,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49">
@@ -695,7 +698,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50">
@@ -719,7 +722,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53">
@@ -727,7 +730,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54">
@@ -735,7 +738,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55">
@@ -743,7 +746,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
@@ -751,7 +754,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57">
@@ -759,7 +762,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58">
@@ -767,7 +770,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="80">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
   </si>
   <si>
     <t xml:space="preserve">51</t>
@@ -330,7 +336,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -338,7 +344,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -346,7 +352,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -354,7 +360,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -362,7 +368,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -370,7 +376,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -378,7 +384,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -386,7 +392,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -394,7 +400,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
@@ -402,7 +408,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
@@ -410,7 +416,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
@@ -418,7 +424,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -426,7 +432,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
@@ -434,7 +440,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
@@ -442,7 +448,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -450,7 +456,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -458,7 +464,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
@@ -466,7 +472,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
@@ -474,7 +480,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
@@ -482,7 +488,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
@@ -490,7 +496,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
@@ -498,7 +504,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -506,7 +512,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26">
@@ -514,7 +520,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
@@ -522,7 +528,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28">
@@ -530,7 +536,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29">
@@ -538,7 +544,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30">
@@ -546,7 +552,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31">
@@ -554,7 +560,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32">
@@ -562,7 +568,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33">
@@ -570,7 +576,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34">
@@ -578,7 +584,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35">
@@ -586,7 +592,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36">
@@ -594,7 +600,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37">
@@ -602,7 +608,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38">
@@ -610,7 +616,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39">
@@ -618,7 +624,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40">
@@ -626,7 +632,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41">
@@ -634,7 +640,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42">
@@ -642,7 +648,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43">
@@ -650,7 +656,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44">
@@ -658,7 +664,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
@@ -666,7 +672,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46">
@@ -674,7 +680,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47">
@@ -682,7 +688,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48">
@@ -690,7 +696,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -698,7 +704,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -706,7 +712,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51">
@@ -714,7 +720,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52">
@@ -722,7 +728,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53">
@@ -730,7 +736,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54">
@@ -738,7 +744,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
@@ -746,7 +752,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56">
@@ -771,6 +777,22 @@
       </c>
       <c r="B58" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="81">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,211 +26,214 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.12 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.94 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.41</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.92 Patch 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.12 fix 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.94 fix 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.41</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.49</t>
@@ -696,7 +699,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49">
@@ -704,7 +707,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50">
@@ -712,7 +715,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51">
@@ -720,7 +723,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52">
@@ -744,7 +747,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
@@ -752,7 +755,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56">
@@ -760,7 +763,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
@@ -768,7 +771,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58">
@@ -776,7 +779,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
@@ -784,7 +787,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60">
@@ -792,7 +795,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.99 Patch 1</t>
+    <t xml:space="preserve">EA 23.108</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.108</t>
+    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="83">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -65,7 +65,13 @@
     <t xml:space="preserve">57</t>
   </si>
   <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
     <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
   </si>
   <si>
     <t xml:space="preserve">34</t>
@@ -339,7 +345,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -347,7 +353,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -355,7 +361,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -363,7 +369,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -371,7 +377,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -379,7 +385,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -387,7 +393,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -395,7 +401,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -403,7 +409,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -411,7 +417,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -419,7 +425,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -427,7 +433,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -435,7 +441,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -443,7 +449,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -451,7 +457,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -459,7 +465,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -467,7 +473,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -475,7 +481,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -483,7 +489,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
@@ -515,7 +521,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -523,7 +529,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
@@ -531,7 +537,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28">
@@ -539,7 +545,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -547,7 +553,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
@@ -555,7 +561,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31">
@@ -563,7 +569,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -571,7 +577,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33">
@@ -579,7 +585,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34">
@@ -587,7 +593,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35">
@@ -595,7 +601,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36">
@@ -603,7 +609,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37">
@@ -611,7 +617,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
@@ -619,7 +625,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39">
@@ -627,7 +633,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40">
@@ -635,7 +641,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
@@ -643,7 +649,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42">
@@ -651,7 +657,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43">
@@ -659,7 +665,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44">
@@ -667,7 +673,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45">
@@ -675,7 +681,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46">
@@ -683,7 +689,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47">
@@ -691,7 +697,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48">
@@ -699,7 +705,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49">
@@ -707,7 +713,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50">
@@ -715,7 +721,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51">
@@ -731,7 +737,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
@@ -739,7 +745,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54">
@@ -747,7 +753,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55">
@@ -755,7 +761,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56">
@@ -763,7 +769,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57">
@@ -771,7 +777,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
@@ -796,6 +802,22 @@
       </c>
       <c r="B60" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="88">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,196 +26,211 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.12 fix 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.12 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.94 fix 1</t>
@@ -345,7 +360,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -353,7 +368,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -361,7 +376,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -369,7 +384,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -377,7 +392,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -385,7 +400,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -393,7 +408,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -401,7 +416,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -409,7 +424,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -417,7 +432,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -425,7 +440,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -433,7 +448,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -441,7 +456,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -449,7 +464,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -457,7 +472,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -465,7 +480,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -473,7 +488,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -481,7 +496,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -489,7 +504,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -497,7 +512,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -505,7 +520,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
@@ -513,7 +528,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
@@ -521,7 +536,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
@@ -529,7 +544,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -537,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
@@ -545,7 +560,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -553,7 +568,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
@@ -561,7 +576,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -569,7 +584,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
@@ -577,7 +592,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33">
@@ -585,7 +600,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34">
@@ -593,7 +608,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35">
@@ -601,7 +616,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
@@ -609,7 +624,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37">
@@ -617,7 +632,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38">
@@ -625,7 +640,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39">
@@ -633,7 +648,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40">
@@ -641,7 +656,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41">
@@ -649,7 +664,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42">
@@ -657,7 +672,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43">
@@ -665,7 +680,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
@@ -673,7 +688,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
@@ -681,7 +696,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46">
@@ -689,7 +704,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47">
@@ -697,7 +712,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48">
@@ -705,7 +720,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49">
@@ -713,7 +728,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50">
@@ -721,7 +736,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51">
@@ -729,7 +744,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52">
@@ -737,7 +752,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53">
@@ -745,7 +760,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54">
@@ -753,7 +768,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
@@ -761,7 +776,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
@@ -769,7 +784,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
@@ -777,7 +792,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
@@ -785,7 +800,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59">
@@ -793,7 +808,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60">
@@ -801,7 +816,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61">
@@ -809,7 +824,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62">
@@ -817,7 +832,39 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="91">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,211 +26,220 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.12 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.129</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.12 fix 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.94 fix 1</t>
@@ -360,7 +369,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -368,7 +377,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -376,7 +385,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -384,7 +393,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -392,7 +401,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -400,7 +409,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -408,7 +417,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -416,7 +425,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -424,7 +433,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -432,7 +441,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -440,7 +449,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -448,7 +457,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -456,7 +465,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -464,7 +473,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -472,7 +481,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
@@ -480,7 +489,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
@@ -488,7 +497,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -496,7 +505,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
@@ -504,7 +513,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -512,7 +521,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
@@ -520,7 +529,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -528,7 +537,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -536,7 +545,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
@@ -544,7 +553,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
@@ -552,7 +561,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -560,7 +569,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
@@ -568,7 +577,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
@@ -576,7 +585,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
@@ -584,7 +593,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -592,7 +601,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -600,7 +609,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34">
@@ -608,7 +617,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35">
@@ -616,7 +625,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -624,7 +633,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37">
@@ -632,7 +641,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
@@ -640,7 +649,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39">
@@ -648,7 +657,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
@@ -656,7 +665,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
@@ -664,7 +673,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42">
@@ -672,7 +681,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43">
@@ -680,7 +689,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44">
@@ -688,7 +697,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45">
@@ -696,7 +705,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
@@ -704,7 +713,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
@@ -712,7 +721,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48">
@@ -720,7 +729,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49">
@@ -728,7 +737,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
@@ -736,7 +745,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51">
@@ -744,7 +753,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
@@ -752,7 +761,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53">
@@ -760,7 +769,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54">
@@ -768,7 +777,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55">
@@ -776,7 +785,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56">
@@ -784,7 +793,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57">
@@ -792,7 +801,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58">
@@ -800,7 +809,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59">
@@ -808,7 +817,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60">
@@ -816,7 +825,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
@@ -824,7 +833,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
@@ -832,7 +841,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63">
@@ -840,7 +849,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64">
@@ -848,7 +857,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65">
@@ -856,7 +865,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66">
@@ -864,7 +873,23 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,238 +26,241 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.12 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.94 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.74</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.12 fix 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.94 fix 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.41</t>
@@ -593,7 +596,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
@@ -601,7 +604,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
@@ -705,7 +708,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
@@ -793,7 +796,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57">
@@ -801,7 +804,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58">
@@ -809,7 +812,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
@@ -817,7 +820,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60">
@@ -841,7 +844,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63">
@@ -849,7 +852,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64">
@@ -857,7 +860,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65">
@@ -865,7 +868,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66">
@@ -873,7 +876,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67">
@@ -881,7 +884,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
@@ -889,7 +892,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.170</t>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.187</t>
+    <t xml:space="preserve">EA 23.188 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="93">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
   </si>
   <si>
     <t xml:space="preserve">59</t>
@@ -372,7 +375,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -380,7 +383,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -388,7 +391,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -396,7 +399,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -404,7 +407,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -412,7 +415,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -420,7 +423,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -428,7 +431,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -436,7 +439,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -444,7 +447,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -452,7 +455,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -460,7 +463,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -468,7 +471,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -476,7 +479,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -484,7 +487,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
@@ -492,7 +495,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
@@ -500,7 +503,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
@@ -508,7 +511,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -516,7 +519,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -524,7 +527,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -532,7 +535,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
@@ -540,7 +543,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
@@ -548,7 +551,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -556,7 +559,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -564,7 +567,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
@@ -572,7 +575,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -580,7 +583,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
@@ -588,7 +591,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -604,7 +607,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
@@ -612,7 +615,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
@@ -628,7 +631,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36">
@@ -636,7 +639,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
@@ -644,7 +647,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
@@ -652,7 +655,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
@@ -668,7 +671,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41">
@@ -676,7 +679,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
@@ -684,7 +687,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43">
@@ -692,7 +695,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
@@ -708,7 +711,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
@@ -716,7 +719,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
@@ -724,7 +727,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
@@ -732,7 +735,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49">
@@ -740,7 +743,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50">
@@ -748,7 +751,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51">
@@ -756,7 +759,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52">
@@ -764,7 +767,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53">
@@ -772,7 +775,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
@@ -788,7 +791,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56">
@@ -796,7 +799,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57">
@@ -804,7 +807,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58">
@@ -828,7 +831,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61">
@@ -836,7 +839,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
@@ -844,7 +847,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
@@ -860,7 +863,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65">
@@ -893,6 +896,14 @@
       </c>
       <c r="B68" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="94">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,238 +26,241 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.12 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.94 fix 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.34</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.12 fix 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.94 fix 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.34</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.74</t>
@@ -591,7 +594,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
@@ -599,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
@@ -607,7 +610,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
@@ -615,7 +618,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
@@ -719,7 +722,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
@@ -807,7 +810,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58">
@@ -815,7 +818,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59">
@@ -823,7 +826,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60">
@@ -831,7 +834,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61">
@@ -855,7 +858,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64">
@@ -863,7 +866,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65">
@@ -871,7 +874,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66">
@@ -879,7 +882,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67">
@@ -887,7 +890,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68">
@@ -895,7 +898,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69">
@@ -903,7 +906,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Game/Recipe.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
